--- a/DataFiles/GCF_BD_Test.xlsx
+++ b/DataFiles/GCF_BD_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5BE99A-631E-4F0A-B5F7-0FCC67804F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D259730-1236-45AE-AD39-82561AACF2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>03-12-2023 15:04:40</t>
+  </si>
+  <si>
+    <t>03/12/2023 21:39:31</t>
   </si>
 </sst>
 </file>
@@ -461,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +480,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -499,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -510,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -521,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -532,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -543,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -554,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -565,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -576,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -587,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -598,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -609,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -620,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -631,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -642,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -653,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -664,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -675,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -686,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -697,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -708,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -719,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -730,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -741,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -752,7 +755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -763,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -774,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -785,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -796,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -807,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -818,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -829,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -840,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -851,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -862,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -873,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -884,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -895,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -906,7 +909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -917,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -928,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -939,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -950,7 +953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -961,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -972,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -983,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -994,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -2006,79 +2009,83 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <f>ROW()-1</f>
         <v>139</v>
       </c>
       <c r="B140" s="4">
-        <v>45263.6316319444</v>
-      </c>
-    </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="141">
+        <v>45263.631631944401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <f>ROW()-1</f>
         <v>140</v>
       </c>
       <c r="B141" s="4">
-        <v>45263.6316550926</v>
-      </c>
-    </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="142">
+        <v>45263.631655092599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <f>ROW()-1</f>
         <v>141</v>
       </c>
       <c r="B142" s="4">
-        <v>45263.6316666667</v>
-      </c>
-    </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="143">
+        <v>45263.631666666697</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <f>ROW()-1</f>
         <v>142</v>
       </c>
       <c r="B143" s="4">
-        <v>45263.6316782407</v>
-      </c>
-    </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="144">
+        <v>45263.631678240701</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <f>ROW()-1</f>
         <v>143</v>
       </c>
       <c r="B144" s="4">
-        <v>45263.6319791667</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="145">
+        <v>45263.631979166697</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t>03/12/2023 21:39:31</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t>Robert M. Vigneault</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="146">
+      <c r="B145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>03/12/2023 21:39:31</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t>Robert M. Vigneault</t>
-        </is>
+      <c r="B146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <f>ROW()-1</f>
+        <v>146</v>
+      </c>
+      <c r="B147" s="4">
+        <v>45265.15221064815</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
